--- a/Base/Teams/Cowboys/Target Depth Data.xlsx
+++ b/Base/Teams/Cowboys/Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>411</v>
+        <v>442</v>
       </c>
       <c r="C3">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="D3">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E3">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F3">
         <v>4</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="C3">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="D3">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Cowboys/Target Depth Data.xlsx
+++ b/Base/Teams/Cowboys/Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>442</v>
+        <v>474</v>
       </c>
       <c r="C3">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="D3">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E3">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -529,19 +529,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="C3">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="D3">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3">
         <v>4</v>

--- a/Base/Teams/Cowboys/Target Depth Data.xlsx
+++ b/Base/Teams/Cowboys/Target Depth Data.xlsx
@@ -450,13 +450,13 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>474</v>
+        <v>507</v>
       </c>
       <c r="C3">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="D3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E3">
         <v>57</v>
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="C3">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="D3">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Cowboys/Target Depth Data.xlsx
+++ b/Base/Teams/Cowboys/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>382</v>
+        <v>414</v>
       </c>
       <c r="C2">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="D2">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E2">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C2">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D2">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Cowboys/Target Depth Data.xlsx
+++ b/Base/Teams/Cowboys/Target Depth Data.xlsx
@@ -427,19 +427,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="C2">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="D2">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E2">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="C2">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="D2">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E2">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F2">
         <v>7</v>

--- a/Base/Teams/Cowboys/Target Depth Data.xlsx
+++ b/Base/Teams/Cowboys/Target Depth Data.xlsx
@@ -427,19 +427,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>448</v>
+        <v>486</v>
       </c>
       <c r="C2">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="D2">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E2">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="C2">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="D2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <v>5</v>
